--- a/Engage/K12-Performance/src/main/resources/excelfiles/K12_PlatformReadings.xlsx
+++ b/Engage/K12-Performance/src/main/resources/excelfiles/K12_PlatformReadings.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B644F947-8FDB-4E6C-81E0-A4F201F47DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2DB93E-EEAE-4241-839B-D9DA77CB1B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="15150" windowHeight="10920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="360">
   <si>
     <t>Environment</t>
   </si>
@@ -1083,6 +1083,33 @@
   </si>
   <si>
     <t>SKIP</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC50</t>
+  </si>
+  <si>
+    <t>Response Rate Report</t>
+  </si>
+  <si>
+    <t>Step 1: Select Response Rate question</t>
+  </si>
+  <si>
+    <t>Step 2: Enter Maximum Count</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC51</t>
+  </si>
+  <si>
+    <t>Advance Frequency Report</t>
+  </si>
+  <si>
+    <t>Step 1: Select Survey Questions</t>
+  </si>
+  <si>
+    <t>Step 2: Re-order Questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 4:  Data Sources and Filters </t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1117,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="76" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1153,324 +1180,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -1493,7 +1202,7 @@
       <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="113">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1518,472 +1227,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -2098,7 +1347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2114,95 +1363,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="45" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="48" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="49" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="50" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="51" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="52" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="53" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="54" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="55" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="56" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="56" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="62" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="64" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="68" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="62" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="62" fillId="74" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="62" fillId="76" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="64" fillId="78" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="64" fillId="80" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="64" fillId="82" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="66" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="66" fillId="86" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="66" fillId="88" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="68" fillId="90" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="68" fillId="92" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="68" fillId="94" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="70" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="70" fillId="98" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="70" fillId="100" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="72" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="72" fillId="104" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="72" fillId="106" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="74" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="74" fillId="110" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="74" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2652,10 +1826,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B22B77-F9A0-48CA-B95A-663324812831}">
-  <dimension ref="A1:BE50"/>
+  <dimension ref="A1:BE52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2870,7 +2044,7 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="94" t="s">
+      <c r="J2" s="13" t="s">
         <v>342</v>
       </c>
       <c r="K2" s="5"/>
@@ -2961,7 +2135,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="96" t="s">
+      <c r="J3" s="14" t="s">
         <v>350</v>
       </c>
       <c r="K3" s="5"/>
@@ -3050,7 +2224,7 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="96" t="s">
+      <c r="J4" s="14" t="s">
         <v>350</v>
       </c>
       <c r="K4" s="5"/>
@@ -3139,7 +2313,7 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="96" t="s">
+      <c r="J5" s="14" t="s">
         <v>350</v>
       </c>
       <c r="K5" s="5"/>
@@ -3228,7 +2402,7 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="96" t="s">
+      <c r="J6" s="14" t="s">
         <v>350</v>
       </c>
       <c r="K6" s="5"/>
@@ -3333,7 +2507,7 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="96" t="s">
+      <c r="J7" s="14" t="s">
         <v>350</v>
       </c>
       <c r="K7" s="5"/>
@@ -3438,7 +2612,7 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="96" t="s">
+      <c r="J8" s="14" t="s">
         <v>350</v>
       </c>
       <c r="K8" s="5"/>
@@ -3529,7 +2703,7 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="96" t="s">
+      <c r="J9" s="14" t="s">
         <v>350</v>
       </c>
       <c r="K9" s="5"/>
@@ -3622,7 +2796,7 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="96" t="s">
+      <c r="J10" s="14" t="s">
         <v>350</v>
       </c>
       <c r="K10" s="5"/>
@@ -3715,7 +2889,7 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="96" t="s">
+      <c r="J11" s="14" t="s">
         <v>350</v>
       </c>
       <c r="K11" s="5"/>
@@ -3808,7 +2982,7 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="96" t="s">
+      <c r="J12" s="14" t="s">
         <v>350</v>
       </c>
       <c r="K12" s="5"/>
@@ -3901,7 +3075,7 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="96" t="s">
+      <c r="J13" s="14" t="s">
         <v>350</v>
       </c>
       <c r="K13" s="5"/>
@@ -3996,7 +3170,7 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="96" t="s">
+      <c r="J14" s="14" t="s">
         <v>350</v>
       </c>
       <c r="K14" s="5"/>
@@ -4091,7 +3265,7 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="96" t="s">
+      <c r="J15" s="14" t="s">
         <v>350</v>
       </c>
       <c r="K15" s="5"/>
@@ -4180,7 +3354,7 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="96" t="s">
+      <c r="J16" s="14" t="s">
         <v>350</v>
       </c>
       <c r="K16" s="5"/>
@@ -4261,7 +3435,7 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="96" t="s">
+      <c r="J17" s="14" t="s">
         <v>350</v>
       </c>
       <c r="K17" s="5"/>
@@ -4352,7 +3526,7 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="96" t="s">
+      <c r="J18" s="14" t="s">
         <v>350</v>
       </c>
       <c r="K18" s="5"/>
@@ -4445,7 +3619,7 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="96" t="s">
+      <c r="J19" s="14" t="s">
         <v>350</v>
       </c>
       <c r="K19" s="5"/>
@@ -4544,7 +3718,7 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="96" t="s">
+      <c r="J20" s="14" t="s">
         <v>350</v>
       </c>
       <c r="K20" s="5"/>
@@ -4647,7 +3821,7 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="96" t="s">
+      <c r="J21" s="14" t="s">
         <v>350</v>
       </c>
       <c r="K21" s="5"/>
@@ -4746,7 +3920,7 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="96" t="s">
+      <c r="J22" s="14" t="s">
         <v>350</v>
       </c>
       <c r="K22" s="5"/>
@@ -4845,7 +4019,7 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="96" t="s">
+      <c r="J23" s="14" t="s">
         <v>350</v>
       </c>
       <c r="K23" s="5"/>
@@ -4936,7 +4110,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="96" t="s">
+      <c r="J24" s="14" t="s">
         <v>350</v>
       </c>
       <c r="K24" s="5"/>
@@ -5027,7 +4201,7 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="96" t="s">
+      <c r="J25" s="14" t="s">
         <v>350</v>
       </c>
       <c r="K25" s="5"/>
@@ -5126,7 +4300,7 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="98" t="s">
+      <c r="J26" s="15" t="s">
         <v>342</v>
       </c>
       <c r="K26" s="5"/>
@@ -5207,7 +4381,7 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="100" t="s">
+      <c r="J27" s="16" t="s">
         <v>350</v>
       </c>
       <c r="K27" s="5"/>
@@ -5310,7 +4484,7 @@
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="100" t="s">
+      <c r="J28" s="16" t="s">
         <v>350</v>
       </c>
       <c r="K28" s="5"/>
@@ -5411,7 +4585,7 @@
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="100" t="s">
+      <c r="J29" s="16" t="s">
         <v>350</v>
       </c>
       <c r="K29" s="5"/>
@@ -5512,7 +4686,7 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="100" t="s">
+      <c r="J30" s="16" t="s">
         <v>350</v>
       </c>
       <c r="K30" s="5"/>
@@ -5599,7 +4773,7 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="100" t="s">
+      <c r="J31" s="16" t="s">
         <v>350</v>
       </c>
       <c r="K31" s="5"/>
@@ -5694,7 +4868,7 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="100" t="s">
+      <c r="J32" s="16" t="s">
         <v>350</v>
       </c>
       <c r="K32" s="5"/>
@@ -5785,7 +4959,7 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="100" t="s">
+      <c r="J33" s="16" t="s">
         <v>350</v>
       </c>
       <c r="K33" s="5"/>
@@ -5872,7 +5046,7 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="100" t="s">
+      <c r="J34" s="16" t="s">
         <v>350</v>
       </c>
       <c r="K34" s="5"/>
@@ -5955,7 +5129,7 @@
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="100" t="s">
+      <c r="J35" s="16" t="s">
         <v>350</v>
       </c>
       <c r="K35" s="5"/>
@@ -6038,7 +5212,7 @@
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="100" t="s">
+      <c r="J36" s="16" t="s">
         <v>350</v>
       </c>
       <c r="K36" s="5"/>
@@ -6121,7 +5295,7 @@
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="100" t="s">
+      <c r="J37" s="16" t="s">
         <v>350</v>
       </c>
       <c r="K37" s="5"/>
@@ -6204,7 +5378,7 @@
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="100" t="s">
+      <c r="J38" s="16" t="s">
         <v>350</v>
       </c>
       <c r="K38" s="5"/>
@@ -6287,7 +5461,7 @@
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="100" t="s">
+      <c r="J39" s="16" t="s">
         <v>350</v>
       </c>
       <c r="K39" s="5"/>
@@ -6370,7 +5544,7 @@
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="100" t="s">
+      <c r="J40" s="16" t="s">
         <v>350</v>
       </c>
       <c r="K40" s="5"/>
@@ -6461,7 +5635,7 @@
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="100" t="s">
+      <c r="J41" s="16" t="s">
         <v>350</v>
       </c>
       <c r="K41" s="5"/>
@@ -6546,7 +5720,7 @@
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="100" t="s">
+      <c r="J42" s="16" t="s">
         <v>350</v>
       </c>
       <c r="K42" s="5"/>
@@ -6635,7 +5809,7 @@
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="6"/>
-      <c r="J43" s="100" t="s">
+      <c r="J43" s="16" t="s">
         <v>350</v>
       </c>
       <c r="K43" s="5"/>
@@ -6724,7 +5898,7 @@
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="6"/>
-      <c r="J44" s="100" t="s">
+      <c r="J44" s="16" t="s">
         <v>350</v>
       </c>
       <c r="K44" s="5"/>
@@ -6813,7 +5987,7 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="100" t="s">
+      <c r="J45" s="16" t="s">
         <v>350</v>
       </c>
       <c r="K45" s="5"/>
@@ -6916,7 +6090,7 @@
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="6"/>
-      <c r="J46" s="100" t="s">
+      <c r="J46" s="16" t="s">
         <v>350</v>
       </c>
       <c r="K46" s="5"/>
@@ -7005,7 +6179,7 @@
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="6"/>
-      <c r="J47" s="100" t="s">
+      <c r="J47" s="16" t="s">
         <v>350</v>
       </c>
       <c r="K47" s="5"/>
@@ -7088,7 +6262,7 @@
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="6"/>
-      <c r="J48" s="100" t="s">
+      <c r="J48" s="16" t="s">
         <v>350</v>
       </c>
       <c r="K48" s="5"/>
@@ -7171,7 +6345,7 @@
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="6"/>
-      <c r="J49" s="100" t="s">
+      <c r="J49" s="16" t="s">
         <v>350</v>
       </c>
       <c r="K49" s="5"/>
@@ -7254,7 +6428,7 @@
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="6"/>
-      <c r="J50" s="100" t="s">
+      <c r="J50" s="16" t="s">
         <v>350</v>
       </c>
       <c r="K50" s="5"/>
@@ -7323,6 +6497,184 @@
       <c r="BD50" s="11"/>
       <c r="BE50" s="4"/>
     </row>
+    <row r="51" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M51" s="5">
+        <v>257</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="7"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="2"/>
+      <c r="AS51" s="9"/>
+      <c r="AT51" s="9"/>
+      <c r="AU51" s="9"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="1"/>
+      <c r="AX51" s="1"/>
+      <c r="AY51" s="1"/>
+      <c r="AZ51" s="1"/>
+      <c r="BA51" s="10"/>
+      <c r="BB51" s="10"/>
+      <c r="BC51" s="11"/>
+      <c r="BD51" s="11"/>
+      <c r="BE51" s="18"/>
+    </row>
+    <row r="52" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M52" s="5">
+        <v>257</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="7"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="2"/>
+      <c r="AS52" s="9"/>
+      <c r="AT52" s="9"/>
+      <c r="AU52" s="9"/>
+      <c r="AV52" s="1"/>
+      <c r="AW52" s="1"/>
+      <c r="AX52" s="1"/>
+      <c r="AY52" s="1"/>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="10"/>
+      <c r="BB52" s="10"/>
+      <c r="BC52" s="11"/>
+      <c r="BD52" s="11"/>
+      <c r="BE52" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>

--- a/Engage/K12-Performance/src/main/resources/excelfiles/K12_PlatformReadings.xlsx
+++ b/Engage/K12-Performance/src/main/resources/excelfiles/K12_PlatformReadings.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2DB93E-EEAE-4241-839B-D9DA77CB1B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFF81F3-C622-4260-9763-225A3385C6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="408">
   <si>
     <t>Environment</t>
   </si>
@@ -1110,14 +1110,157 @@
   </si>
   <si>
     <t xml:space="preserve">Step 4:  Data Sources and Filters </t>
+  </si>
+  <si>
+    <t>toggleData</t>
+  </si>
+  <si>
+    <t>fromDate</t>
+  </si>
+  <si>
+    <t>toDate</t>
+  </si>
+  <si>
+    <t>respPeriodCond</t>
+  </si>
+  <si>
+    <t>IP,emailAddr,browserType,OS,screenRes,startEndTime</t>
+  </si>
+  <si>
+    <t>01-Jan-2018</t>
+  </si>
+  <si>
+    <t>07-Dec-2021</t>
+  </si>
+  <si>
+    <t>Between</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC52</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Home Page to Data Module</t>
+  </si>
+  <si>
+    <t>All Q Survey Fruits EXE after 17.0 live</t>
+  </si>
+  <si>
+    <t>Step 1: Navigate to Data module from Home Page using 'All survey Dashboard'.</t>
+  </si>
+  <si>
+    <t>Step 2: Navigate to Data module from Home Page using Data module icon from Recent Surveys.</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC53</t>
+  </si>
+  <si>
+    <t>Export Excel</t>
+  </si>
+  <si>
+    <t>Step 1: Select Excel format</t>
+  </si>
+  <si>
+    <t>Step 2: Select Survey Questions and Click Continue.</t>
+  </si>
+  <si>
+    <t>Step 3: Toggle 'ON' all Respondent Attributes and Response Attributes  and Click Continue.</t>
+  </si>
+  <si>
+    <t>Step 4: Apply 1 condition and any Date filter and Click Continue.</t>
+  </si>
+  <si>
+    <t>Step 5:  Toggle 'ON' Assign code and Click Continue.</t>
+  </si>
+  <si>
+    <t>Q1. What's your Name?</t>
+  </si>
+  <si>
+    <t>contains</t>
+  </si>
+  <si>
+    <t>Godwin</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC54</t>
+  </si>
+  <si>
+    <t>Export CSV</t>
+  </si>
+  <si>
+    <t>Step 1: Select CSV format</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC55</t>
+  </si>
+  <si>
+    <t>Export XML</t>
+  </si>
+  <si>
+    <t>Step 1: Select XML format</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC56</t>
+  </si>
+  <si>
+    <t>Export Access</t>
+  </si>
+  <si>
+    <t>Step 1: Select Access format</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC57</t>
+  </si>
+  <si>
+    <t>Export Word</t>
+  </si>
+  <si>
+    <t>Step 1: Select Word format</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC58</t>
+  </si>
+  <si>
+    <t>Export HTML</t>
+  </si>
+  <si>
+    <t>Step 1: Select HTML format</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC59</t>
+  </si>
+  <si>
+    <t>Export SPSS</t>
+  </si>
+  <si>
+    <t>Step 1: Select SPSS format</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC60</t>
+  </si>
+  <si>
+    <t>Export SoGo1</t>
+  </si>
+  <si>
+    <t>Step 1: Export K12Insight1</t>
+  </si>
+  <si>
+    <t>gjoyk12_test</t>
+  </si>
+  <si>
+    <t>Eighth8#</t>
+  </si>
+  <si>
+    <t>Step 6: Click any range and click Export. (Note the time until download is completed)*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1179,30 +1322,8 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="21">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1221,18 +1342,8 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="none">
         <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
@@ -1246,63 +1357,13 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
       </patternFill>
     </fill>
   </fills>
@@ -1347,7 +1408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1363,20 +1424,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1667,8 +1721,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1723,9 +1777,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1758,18 +1812,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1814,40 +1868,55 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="Welcome@1234" xr:uid="{59B4C049-04B3-4447-9A04-941BCA3EDEAB}"/>
+    <hyperlink ref="C4" r:id="rId2" display="GVG3196@test" xr:uid="{FF8B34C1-29EC-42B3-8D78-757BCB04782A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B22B77-F9A0-48CA-B95A-663324812831}">
-  <dimension ref="A1:BE52"/>
+  <dimension ref="A1:BI61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView tabSelected="1" topLeftCell="M46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S54" sqref="S54:S60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="11" max="56" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="60" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -2017,15 +2086,27 @@
         <v>292</v>
       </c>
       <c r="BE1" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="BI1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -2044,8 +2125,8 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="13" t="s">
-        <v>342</v>
+      <c r="J2" s="17" t="s">
+        <v>350</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
@@ -2109,9 +2190,13 @@
       <c r="BB2" s="1"/>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
-      <c r="BE2" s="4"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="4"/>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -2135,7 +2220,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="17" t="s">
         <v>350</v>
       </c>
       <c r="K3" s="5"/>
@@ -2198,9 +2283,13 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
-      <c r="BE3" s="4"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="4"/>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -2224,7 +2313,7 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="17" t="s">
         <v>350</v>
       </c>
       <c r="K4" s="5"/>
@@ -2287,9 +2376,13 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
-      <c r="BE4" s="4"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="4"/>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -2313,7 +2406,7 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="17" t="s">
         <v>350</v>
       </c>
       <c r="K5" s="5"/>
@@ -2376,9 +2469,13 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
-      <c r="BE5" s="4"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="4"/>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
@@ -2402,7 +2499,7 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="17" t="s">
         <v>350</v>
       </c>
       <c r="K6" s="5"/>
@@ -2481,9 +2578,13 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
       <c r="BD6" s="1"/>
-      <c r="BE6" s="4"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="4"/>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>66</v>
       </c>
@@ -2507,7 +2608,7 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="17" t="s">
         <v>350</v>
       </c>
       <c r="K7" s="5"/>
@@ -2586,9 +2687,13 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
       <c r="BD7" s="1"/>
-      <c r="BE7" s="4"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="4"/>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>69</v>
       </c>
@@ -2612,7 +2717,7 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="17" t="s">
         <v>350</v>
       </c>
       <c r="K8" s="5"/>
@@ -2677,9 +2782,13 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
-      <c r="BE8" s="4"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="4"/>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>78</v>
       </c>
@@ -2703,7 +2812,7 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="17" t="s">
         <v>350</v>
       </c>
       <c r="K9" s="5"/>
@@ -2770,9 +2879,13 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
-      <c r="BE9" s="4"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="4"/>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>83</v>
       </c>
@@ -2796,7 +2909,7 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="17" t="s">
         <v>350</v>
       </c>
       <c r="K10" s="5"/>
@@ -2863,9 +2976,13 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
       <c r="BD10" s="1"/>
-      <c r="BE10" s="4"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="4"/>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
@@ -2889,7 +3006,7 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="17" t="s">
         <v>350</v>
       </c>
       <c r="K11" s="5"/>
@@ -2956,9 +3073,13 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
       <c r="BD11" s="1"/>
-      <c r="BE11" s="4"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="4"/>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>89</v>
       </c>
@@ -2982,7 +3103,7 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="17" t="s">
         <v>350</v>
       </c>
       <c r="K12" s="5"/>
@@ -3049,9 +3170,13 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
       <c r="BD12" s="1"/>
-      <c r="BE12" s="4"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="4"/>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
@@ -3075,7 +3200,7 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="17" t="s">
         <v>350</v>
       </c>
       <c r="K13" s="5"/>
@@ -3144,9 +3269,13 @@
       <c r="BB13" s="7"/>
       <c r="BC13" s="7"/>
       <c r="BD13" s="7"/>
-      <c r="BE13" s="4"/>
+      <c r="BE13" s="7"/>
+      <c r="BF13" s="7"/>
+      <c r="BG13" s="7"/>
+      <c r="BH13" s="7"/>
+      <c r="BI13" s="4"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>101</v>
       </c>
@@ -3170,7 +3299,7 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="17" t="s">
         <v>350</v>
       </c>
       <c r="K14" s="5"/>
@@ -3239,9 +3368,13 @@
       <c r="BB14" s="8"/>
       <c r="BC14" s="8"/>
       <c r="BD14" s="8"/>
-      <c r="BE14" s="4"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="4"/>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>112</v>
       </c>
@@ -3265,7 +3398,7 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="17" t="s">
         <v>350</v>
       </c>
       <c r="K15" s="5"/>
@@ -3328,9 +3461,13 @@
       <c r="BB15" s="8"/>
       <c r="BC15" s="8"/>
       <c r="BD15" s="8"/>
-      <c r="BE15" s="4"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="4"/>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>115</v>
       </c>
@@ -3354,7 +3491,7 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="17" t="s">
         <v>350</v>
       </c>
       <c r="K16" s="5"/>
@@ -3409,9 +3546,13 @@
       <c r="BB16" s="8"/>
       <c r="BC16" s="8"/>
       <c r="BD16" s="8"/>
-      <c r="BE16" s="4"/>
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
+      <c r="BI16" s="4"/>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>117</v>
       </c>
@@ -3435,7 +3576,7 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="17" t="s">
         <v>350</v>
       </c>
       <c r="K17" s="5"/>
@@ -3500,9 +3641,13 @@
       <c r="BB17" s="8"/>
       <c r="BC17" s="8"/>
       <c r="BD17" s="8"/>
-      <c r="BE17" s="4"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="4"/>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>122</v>
       </c>
@@ -3526,7 +3671,7 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="17" t="s">
         <v>350</v>
       </c>
       <c r="K18" s="5"/>
@@ -3593,9 +3738,13 @@
       <c r="BB18" s="8"/>
       <c r="BC18" s="8"/>
       <c r="BD18" s="8"/>
-      <c r="BE18" s="4"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
+      <c r="BI18" s="4"/>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>125</v>
       </c>
@@ -3619,7 +3768,7 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="17" t="s">
         <v>350</v>
       </c>
       <c r="K19" s="5"/>
@@ -3692,9 +3841,13 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
       <c r="BD19" s="1"/>
-      <c r="BE19" s="4"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="4"/>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>135</v>
       </c>
@@ -3718,7 +3871,7 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="17" t="s">
         <v>350</v>
       </c>
       <c r="K20" s="5"/>
@@ -3795,9 +3948,13 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
       <c r="BD20" s="1"/>
-      <c r="BE20" s="4"/>
+      <c r="BE20" s="1"/>
+      <c r="BF20" s="1"/>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="4"/>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>153</v>
       </c>
@@ -3821,7 +3978,7 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="17" t="s">
         <v>350</v>
       </c>
       <c r="K21" s="5"/>
@@ -3894,9 +4051,13 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
       <c r="BD21" s="1"/>
-      <c r="BE21" s="4"/>
+      <c r="BE21" s="1"/>
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="1"/>
+      <c r="BI21" s="4"/>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>168</v>
       </c>
@@ -3920,7 +4081,7 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="17" t="s">
         <v>350</v>
       </c>
       <c r="K22" s="5"/>
@@ -3993,9 +4154,13 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
       <c r="BD22" s="1"/>
-      <c r="BE22" s="4"/>
+      <c r="BE22" s="1"/>
+      <c r="BF22" s="1"/>
+      <c r="BG22" s="1"/>
+      <c r="BH22" s="1"/>
+      <c r="BI22" s="4"/>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>169</v>
       </c>
@@ -4019,7 +4184,7 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="17" t="s">
         <v>350</v>
       </c>
       <c r="K23" s="5"/>
@@ -4084,9 +4249,13 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
       <c r="BD23" s="1"/>
-      <c r="BE23" s="4"/>
+      <c r="BE23" s="1"/>
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1"/>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="4"/>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>175</v>
       </c>
@@ -4110,7 +4279,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="14" t="s">
+      <c r="J24" s="17" t="s">
         <v>350</v>
       </c>
       <c r="K24" s="5"/>
@@ -4175,9 +4344,13 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
       <c r="BD24" s="1"/>
-      <c r="BE24" s="4"/>
+      <c r="BE24" s="1"/>
+      <c r="BF24" s="1"/>
+      <c r="BG24" s="1"/>
+      <c r="BH24" s="1"/>
+      <c r="BI24" s="4"/>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>182</v>
       </c>
@@ -4201,7 +4374,7 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="17" t="s">
         <v>350</v>
       </c>
       <c r="K25" s="5"/>
@@ -4274,14 +4447,18 @@
       <c r="BB25" s="2"/>
       <c r="BC25" s="2"/>
       <c r="BD25" s="2"/>
-      <c r="BE25" s="4"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="2"/>
+      <c r="BH25" s="2"/>
+      <c r="BI25" s="4"/>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
@@ -4300,8 +4477,8 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="15" t="s">
-        <v>342</v>
+      <c r="J26" s="18" t="s">
+        <v>350</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5" t="s">
@@ -4355,9 +4532,13 @@
       <c r="BB26" s="2"/>
       <c r="BC26" s="2"/>
       <c r="BD26" s="2"/>
-      <c r="BE26" s="4"/>
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="2"/>
+      <c r="BG26" s="2"/>
+      <c r="BH26" s="2"/>
+      <c r="BI26" s="4"/>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>197</v>
       </c>
@@ -4381,7 +4562,7 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="18" t="s">
         <v>350</v>
       </c>
       <c r="K27" s="5"/>
@@ -4458,9 +4639,13 @@
       <c r="BB27" s="8"/>
       <c r="BC27" s="8"/>
       <c r="BD27" s="8"/>
-      <c r="BE27" s="4"/>
+      <c r="BE27" s="1"/>
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1"/>
+      <c r="BH27" s="1"/>
+      <c r="BI27" s="4"/>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>214</v>
       </c>
@@ -4484,7 +4669,7 @@
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="16" t="s">
+      <c r="J28" s="18" t="s">
         <v>350</v>
       </c>
       <c r="K28" s="5"/>
@@ -4559,9 +4744,13 @@
       <c r="BB28" s="8"/>
       <c r="BC28" s="8"/>
       <c r="BD28" s="8"/>
-      <c r="BE28" s="4"/>
+      <c r="BE28" s="1"/>
+      <c r="BF28" s="1"/>
+      <c r="BG28" s="1"/>
+      <c r="BH28" s="1"/>
+      <c r="BI28" s="4"/>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>224</v>
       </c>
@@ -4585,7 +4774,7 @@
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="16" t="s">
+      <c r="J29" s="18" t="s">
         <v>350</v>
       </c>
       <c r="K29" s="5"/>
@@ -4660,9 +4849,13 @@
       <c r="BB29" s="8"/>
       <c r="BC29" s="8"/>
       <c r="BD29" s="8"/>
-      <c r="BE29" s="4"/>
+      <c r="BE29" s="1"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1"/>
+      <c r="BH29" s="1"/>
+      <c r="BI29" s="4"/>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>227</v>
       </c>
@@ -4686,7 +4879,7 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="16" t="s">
+      <c r="J30" s="18" t="s">
         <v>350</v>
       </c>
       <c r="K30" s="5"/>
@@ -4747,9 +4940,13 @@
       <c r="BB30" s="8"/>
       <c r="BC30" s="8"/>
       <c r="BD30" s="8"/>
-      <c r="BE30" s="4"/>
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BI30" s="4"/>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>242</v>
       </c>
@@ -4773,7 +4970,7 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="16" t="s">
+      <c r="J31" s="18" t="s">
         <v>350</v>
       </c>
       <c r="K31" s="5"/>
@@ -4842,9 +5039,13 @@
       <c r="BB31" s="8"/>
       <c r="BC31" s="8"/>
       <c r="BD31" s="8"/>
-      <c r="BE31" s="4"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
+      <c r="BH31" s="1"/>
+      <c r="BI31" s="4"/>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>245</v>
       </c>
@@ -4868,7 +5069,7 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="16" t="s">
+      <c r="J32" s="18" t="s">
         <v>350</v>
       </c>
       <c r="K32" s="5"/>
@@ -4933,9 +5134,13 @@
       <c r="BB32" s="8"/>
       <c r="BC32" s="8"/>
       <c r="BD32" s="8"/>
-      <c r="BE32" s="4"/>
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1"/>
+      <c r="BI32" s="4"/>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>253</v>
       </c>
@@ -4959,7 +5164,7 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="16" t="s">
+      <c r="J33" s="18" t="s">
         <v>350</v>
       </c>
       <c r="K33" s="5"/>
@@ -5020,9 +5225,13 @@
       <c r="BB33" s="8"/>
       <c r="BC33" s="8"/>
       <c r="BD33" s="8"/>
-      <c r="BE33" s="4"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="4"/>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>258</v>
       </c>
@@ -5046,7 +5255,7 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="16" t="s">
+      <c r="J34" s="18" t="s">
         <v>350</v>
       </c>
       <c r="K34" s="5"/>
@@ -5103,9 +5312,13 @@
       <c r="BB34" s="8"/>
       <c r="BC34" s="8"/>
       <c r="BD34" s="8"/>
-      <c r="BE34" s="4"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="4"/>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>261</v>
       </c>
@@ -5129,7 +5342,7 @@
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="16" t="s">
+      <c r="J35" s="18" t="s">
         <v>350</v>
       </c>
       <c r="K35" s="5"/>
@@ -5186,9 +5399,13 @@
       <c r="BB35" s="8"/>
       <c r="BC35" s="8"/>
       <c r="BD35" s="8"/>
-      <c r="BE35" s="4"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="4"/>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>264</v>
       </c>
@@ -5212,7 +5429,7 @@
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="16" t="s">
+      <c r="J36" s="18" t="s">
         <v>350</v>
       </c>
       <c r="K36" s="5"/>
@@ -5269,9 +5486,13 @@
       <c r="BB36" s="8"/>
       <c r="BC36" s="8"/>
       <c r="BD36" s="8"/>
-      <c r="BE36" s="4"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
+      <c r="BG36" s="1"/>
+      <c r="BH36" s="1"/>
+      <c r="BI36" s="4"/>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>267</v>
       </c>
@@ -5295,7 +5516,7 @@
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="16" t="s">
+      <c r="J37" s="18" t="s">
         <v>350</v>
       </c>
       <c r="K37" s="5"/>
@@ -5352,9 +5573,13 @@
       <c r="BB37" s="8"/>
       <c r="BC37" s="8"/>
       <c r="BD37" s="8"/>
-      <c r="BE37" s="4"/>
+      <c r="BE37" s="1"/>
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1"/>
+      <c r="BH37" s="1"/>
+      <c r="BI37" s="4"/>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>270</v>
       </c>
@@ -5378,7 +5603,7 @@
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="16" t="s">
+      <c r="J38" s="18" t="s">
         <v>350</v>
       </c>
       <c r="K38" s="5"/>
@@ -5435,9 +5660,13 @@
       <c r="BB38" s="8"/>
       <c r="BC38" s="8"/>
       <c r="BD38" s="8"/>
-      <c r="BE38" s="4"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BI38" s="4"/>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>273</v>
       </c>
@@ -5461,7 +5690,7 @@
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="16" t="s">
+      <c r="J39" s="18" t="s">
         <v>350</v>
       </c>
       <c r="K39" s="5"/>
@@ -5518,9 +5747,13 @@
       <c r="BB39" s="8"/>
       <c r="BC39" s="8"/>
       <c r="BD39" s="8"/>
-      <c r="BE39" s="4"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+      <c r="BH39" s="1"/>
+      <c r="BI39" s="4"/>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>276</v>
       </c>
@@ -5544,7 +5777,7 @@
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="16" t="s">
+      <c r="J40" s="18" t="s">
         <v>350</v>
       </c>
       <c r="K40" s="5"/>
@@ -5609,9 +5842,13 @@
       </c>
       <c r="BC40" s="11"/>
       <c r="BD40" s="11"/>
-      <c r="BE40" s="4"/>
+      <c r="BE40" s="11"/>
+      <c r="BF40" s="11"/>
+      <c r="BG40" s="11"/>
+      <c r="BH40" s="11"/>
+      <c r="BI40" s="4"/>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>286</v>
       </c>
@@ -5635,7 +5872,7 @@
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="16" t="s">
+      <c r="J41" s="18" t="s">
         <v>350</v>
       </c>
       <c r="K41" s="5"/>
@@ -5694,9 +5931,13 @@
         <v>287</v>
       </c>
       <c r="BD41" s="11"/>
-      <c r="BE41" s="4"/>
+      <c r="BE41" s="11"/>
+      <c r="BF41" s="11"/>
+      <c r="BG41" s="11"/>
+      <c r="BH41" s="11"/>
+      <c r="BI41" s="4"/>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>290</v>
       </c>
@@ -5720,7 +5961,7 @@
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="16" t="s">
+      <c r="J42" s="18" t="s">
         <v>350</v>
       </c>
       <c r="K42" s="5"/>
@@ -5783,9 +6024,13 @@
       <c r="BD42" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="BE42" s="4"/>
+      <c r="BE42" s="11"/>
+      <c r="BF42" s="11"/>
+      <c r="BG42" s="11"/>
+      <c r="BH42" s="11"/>
+      <c r="BI42" s="4"/>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>294</v>
       </c>
@@ -5809,7 +6054,7 @@
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="6"/>
-      <c r="J43" s="16" t="s">
+      <c r="J43" s="18" t="s">
         <v>350</v>
       </c>
       <c r="K43" s="5"/>
@@ -5872,9 +6117,13 @@
       <c r="BD43" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="BE43" s="4"/>
+      <c r="BE43" s="11"/>
+      <c r="BF43" s="11"/>
+      <c r="BG43" s="11"/>
+      <c r="BH43" s="11"/>
+      <c r="BI43" s="4"/>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>298</v>
       </c>
@@ -5898,7 +6147,7 @@
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="6"/>
-      <c r="J44" s="16" t="s">
+      <c r="J44" s="18" t="s">
         <v>350</v>
       </c>
       <c r="K44" s="5"/>
@@ -5961,9 +6210,13 @@
       <c r="BD44" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="BE44" s="4"/>
+      <c r="BE44" s="11"/>
+      <c r="BF44" s="11"/>
+      <c r="BG44" s="11"/>
+      <c r="BH44" s="11"/>
+      <c r="BI44" s="4"/>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>302</v>
       </c>
@@ -5987,7 +6240,7 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="16" t="s">
+      <c r="J45" s="18" t="s">
         <v>350</v>
       </c>
       <c r="K45" s="5"/>
@@ -6064,9 +6317,13 @@
       <c r="BD45" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="BE45" s="4"/>
+      <c r="BE45" s="11"/>
+      <c r="BF45" s="11"/>
+      <c r="BG45" s="11"/>
+      <c r="BH45" s="11"/>
+      <c r="BI45" s="4"/>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>335</v>
       </c>
@@ -6090,7 +6347,7 @@
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="6"/>
-      <c r="J46" s="16" t="s">
+      <c r="J46" s="18" t="s">
         <v>350</v>
       </c>
       <c r="K46" s="5"/>
@@ -6153,9 +6410,13 @@
       <c r="BD46" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="BE46" s="4"/>
+      <c r="BE46" s="11"/>
+      <c r="BF46" s="11"/>
+      <c r="BG46" s="11"/>
+      <c r="BH46" s="11"/>
+      <c r="BI46" s="4"/>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>314</v>
       </c>
@@ -6179,7 +6440,7 @@
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="6"/>
-      <c r="J47" s="16" t="s">
+      <c r="J47" s="18" t="s">
         <v>350</v>
       </c>
       <c r="K47" s="5"/>
@@ -6236,9 +6497,13 @@
       <c r="BB47" s="10"/>
       <c r="BC47" s="11"/>
       <c r="BD47" s="11"/>
-      <c r="BE47" s="4"/>
+      <c r="BE47" s="11"/>
+      <c r="BF47" s="11"/>
+      <c r="BG47" s="11"/>
+      <c r="BH47" s="11"/>
+      <c r="BI47" s="4"/>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>316</v>
       </c>
@@ -6262,7 +6527,7 @@
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="6"/>
-      <c r="J48" s="16" t="s">
+      <c r="J48" s="18" t="s">
         <v>350</v>
       </c>
       <c r="K48" s="5"/>
@@ -6319,9 +6584,13 @@
       <c r="BB48" s="10"/>
       <c r="BC48" s="11"/>
       <c r="BD48" s="11"/>
-      <c r="BE48" s="4"/>
+      <c r="BE48" s="11"/>
+      <c r="BF48" s="11"/>
+      <c r="BG48" s="11"/>
+      <c r="BH48" s="11"/>
+      <c r="BI48" s="4"/>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>317</v>
       </c>
@@ -6345,7 +6614,7 @@
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="6"/>
-      <c r="J49" s="16" t="s">
+      <c r="J49" s="18" t="s">
         <v>350</v>
       </c>
       <c r="K49" s="5"/>
@@ -6402,9 +6671,13 @@
       <c r="BB49" s="10"/>
       <c r="BC49" s="11"/>
       <c r="BD49" s="11"/>
-      <c r="BE49" s="4"/>
+      <c r="BE49" s="11"/>
+      <c r="BF49" s="11"/>
+      <c r="BG49" s="11"/>
+      <c r="BH49" s="11"/>
+      <c r="BI49" s="4"/>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>326</v>
       </c>
@@ -6428,7 +6701,7 @@
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="6"/>
-      <c r="J50" s="16" t="s">
+      <c r="J50" s="18" t="s">
         <v>350</v>
       </c>
       <c r="K50" s="5"/>
@@ -6495,14 +6768,18 @@
       <c r="BB50" s="10"/>
       <c r="BC50" s="11"/>
       <c r="BD50" s="11"/>
-      <c r="BE50" s="4"/>
+      <c r="BE50" s="11"/>
+      <c r="BF50" s="11"/>
+      <c r="BG50" s="11"/>
+      <c r="BH50" s="11"/>
+      <c r="BI50" s="4"/>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>351</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>12</v>
@@ -6521,11 +6798,11 @@
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="6"/>
-      <c r="J51" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18" t="s">
+      <c r="J51" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13" t="s">
         <v>42</v>
       </c>
       <c r="M51" s="5">
@@ -6584,14 +6861,18 @@
       <c r="BB51" s="10"/>
       <c r="BC51" s="11"/>
       <c r="BD51" s="11"/>
-      <c r="BE51" s="18"/>
+      <c r="BE51" s="11"/>
+      <c r="BF51" s="11"/>
+      <c r="BG51" s="11"/>
+      <c r="BH51" s="11"/>
+      <c r="BI51" s="13"/>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>12</v>
@@ -6610,11 +6891,11 @@
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18" t="s">
+      <c r="J52" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13" t="s">
         <v>42</v>
       </c>
       <c r="M52" s="5">
@@ -6673,7 +6954,946 @@
       <c r="BB52" s="10"/>
       <c r="BC52" s="11"/>
       <c r="BD52" s="11"/>
-      <c r="BE52" s="18"/>
+      <c r="BE52" s="11"/>
+      <c r="BF52" s="11"/>
+      <c r="BG52" s="11"/>
+      <c r="BH52" s="11"/>
+      <c r="BI52" s="13"/>
+    </row>
+    <row r="53" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="M53" s="16">
+        <v>114</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="7"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1"/>
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="1"/>
+      <c r="AO53" s="1"/>
+      <c r="AP53" s="1"/>
+      <c r="AQ53" s="1"/>
+      <c r="AR53" s="2"/>
+      <c r="AS53" s="9"/>
+      <c r="AT53" s="9"/>
+      <c r="AU53" s="9"/>
+      <c r="AV53" s="1"/>
+      <c r="AW53" s="1"/>
+      <c r="AX53" s="1"/>
+      <c r="AY53" s="1"/>
+      <c r="AZ53" s="1"/>
+      <c r="BA53" s="10"/>
+      <c r="BB53" s="10"/>
+      <c r="BC53" s="11"/>
+      <c r="BD53" s="11"/>
+      <c r="BE53" s="11"/>
+      <c r="BF53" s="11"/>
+      <c r="BG53" s="11"/>
+      <c r="BH53" s="11"/>
+      <c r="BI53" s="16"/>
+    </row>
+    <row r="54" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="M54" s="16">
+        <v>114</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y54" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z54" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="7"/>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="1"/>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="1"/>
+      <c r="AO54" s="1"/>
+      <c r="AP54" s="1"/>
+      <c r="AQ54" s="1"/>
+      <c r="AR54" s="2"/>
+      <c r="AS54" s="9"/>
+      <c r="AT54" s="9"/>
+      <c r="AU54" s="9"/>
+      <c r="AV54" s="1"/>
+      <c r="AW54" s="1"/>
+      <c r="AX54" s="1"/>
+      <c r="AY54" s="1"/>
+      <c r="AZ54" s="1"/>
+      <c r="BA54" s="10"/>
+      <c r="BB54" s="10"/>
+      <c r="BC54" s="11"/>
+      <c r="BD54" s="11"/>
+      <c r="BE54" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="BF54" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="BG54" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="BH54" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="BI54" s="16"/>
+    </row>
+    <row r="55" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="M55" s="16">
+        <v>114</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y55" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z55" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="7"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="1"/>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="1"/>
+      <c r="AO55" s="1"/>
+      <c r="AP55" s="1"/>
+      <c r="AQ55" s="1"/>
+      <c r="AR55" s="2"/>
+      <c r="AS55" s="9"/>
+      <c r="AT55" s="9"/>
+      <c r="AU55" s="9"/>
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="1"/>
+      <c r="AX55" s="1"/>
+      <c r="AY55" s="1"/>
+      <c r="AZ55" s="1"/>
+      <c r="BA55" s="10"/>
+      <c r="BB55" s="10"/>
+      <c r="BC55" s="11"/>
+      <c r="BD55" s="11"/>
+      <c r="BE55" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="BF55" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="BG55" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="BH55" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="BI55" s="16"/>
+    </row>
+    <row r="56" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="M56" s="16">
+        <v>114</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y56" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z56" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="7"/>
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="1"/>
+      <c r="AK56" s="1"/>
+      <c r="AL56" s="1"/>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="1"/>
+      <c r="AO56" s="1"/>
+      <c r="AP56" s="1"/>
+      <c r="AQ56" s="1"/>
+      <c r="AR56" s="2"/>
+      <c r="AS56" s="9"/>
+      <c r="AT56" s="9"/>
+      <c r="AU56" s="9"/>
+      <c r="AV56" s="1"/>
+      <c r="AW56" s="1"/>
+      <c r="AX56" s="1"/>
+      <c r="AY56" s="1"/>
+      <c r="AZ56" s="1"/>
+      <c r="BA56" s="10"/>
+      <c r="BB56" s="10"/>
+      <c r="BC56" s="11"/>
+      <c r="BD56" s="11"/>
+      <c r="BE56" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="BF56" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="BG56" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="BH56" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="BI56" s="16"/>
+    </row>
+    <row r="57" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="M57" s="16">
+        <v>114</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y57" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z57" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="7"/>
+      <c r="AI57" s="1"/>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="1"/>
+      <c r="AL57" s="1"/>
+      <c r="AM57" s="1"/>
+      <c r="AN57" s="1"/>
+      <c r="AO57" s="1"/>
+      <c r="AP57" s="1"/>
+      <c r="AQ57" s="1"/>
+      <c r="AR57" s="2"/>
+      <c r="AS57" s="9"/>
+      <c r="AT57" s="9"/>
+      <c r="AU57" s="9"/>
+      <c r="AV57" s="1"/>
+      <c r="AW57" s="1"/>
+      <c r="AX57" s="1"/>
+      <c r="AY57" s="1"/>
+      <c r="AZ57" s="1"/>
+      <c r="BA57" s="10"/>
+      <c r="BB57" s="10"/>
+      <c r="BC57" s="11"/>
+      <c r="BD57" s="11"/>
+      <c r="BE57" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="BF57" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="BG57" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="BH57" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="BI57" s="16"/>
+    </row>
+    <row r="58" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="M58" s="16">
+        <v>114</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y58" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z58" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1"/>
+      <c r="AH58" s="7"/>
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="1"/>
+      <c r="AK58" s="1"/>
+      <c r="AL58" s="1"/>
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="1"/>
+      <c r="AO58" s="1"/>
+      <c r="AP58" s="1"/>
+      <c r="AQ58" s="1"/>
+      <c r="AR58" s="2"/>
+      <c r="AS58" s="9"/>
+      <c r="AT58" s="9"/>
+      <c r="AU58" s="9"/>
+      <c r="AV58" s="1"/>
+      <c r="AW58" s="1"/>
+      <c r="AX58" s="1"/>
+      <c r="AY58" s="1"/>
+      <c r="AZ58" s="1"/>
+      <c r="BA58" s="10"/>
+      <c r="BB58" s="10"/>
+      <c r="BC58" s="11"/>
+      <c r="BD58" s="11"/>
+      <c r="BE58" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="BF58" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="BG58" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="BH58" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="BI58" s="16"/>
+    </row>
+    <row r="59" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="M59" s="16">
+        <v>114</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y59" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z59" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+      <c r="AH59" s="7"/>
+      <c r="AI59" s="1"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1"/>
+      <c r="AL59" s="1"/>
+      <c r="AM59" s="1"/>
+      <c r="AN59" s="1"/>
+      <c r="AO59" s="1"/>
+      <c r="AP59" s="1"/>
+      <c r="AQ59" s="1"/>
+      <c r="AR59" s="2"/>
+      <c r="AS59" s="9"/>
+      <c r="AT59" s="9"/>
+      <c r="AU59" s="9"/>
+      <c r="AV59" s="1"/>
+      <c r="AW59" s="1"/>
+      <c r="AX59" s="1"/>
+      <c r="AY59" s="1"/>
+      <c r="AZ59" s="1"/>
+      <c r="BA59" s="10"/>
+      <c r="BB59" s="10"/>
+      <c r="BC59" s="11"/>
+      <c r="BD59" s="11"/>
+      <c r="BE59" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="BF59" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="BG59" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="BH59" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="BI59" s="16"/>
+    </row>
+    <row r="60" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="M60" s="16">
+        <v>114</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y60" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z60" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="7"/>
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="1"/>
+      <c r="AL60" s="1"/>
+      <c r="AM60" s="1"/>
+      <c r="AN60" s="1"/>
+      <c r="AO60" s="1"/>
+      <c r="AP60" s="1"/>
+      <c r="AQ60" s="1"/>
+      <c r="AR60" s="2"/>
+      <c r="AS60" s="9"/>
+      <c r="AT60" s="9"/>
+      <c r="AU60" s="9"/>
+      <c r="AV60" s="1"/>
+      <c r="AW60" s="1"/>
+      <c r="AX60" s="1"/>
+      <c r="AY60" s="1"/>
+      <c r="AZ60" s="1"/>
+      <c r="BA60" s="10"/>
+      <c r="BB60" s="10"/>
+      <c r="BC60" s="11"/>
+      <c r="BD60" s="11"/>
+      <c r="BE60" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="BF60" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="BG60" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="BH60" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="BI60" s="16"/>
+    </row>
+    <row r="61" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="M61" s="16">
+        <v>114</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="1"/>
+      <c r="AH61" s="7"/>
+      <c r="AI61" s="1"/>
+      <c r="AJ61" s="1"/>
+      <c r="AK61" s="1"/>
+      <c r="AL61" s="1"/>
+      <c r="AM61" s="1"/>
+      <c r="AN61" s="1"/>
+      <c r="AO61" s="1"/>
+      <c r="AP61" s="1"/>
+      <c r="AQ61" s="1"/>
+      <c r="AR61" s="2"/>
+      <c r="AS61" s="9"/>
+      <c r="AT61" s="9"/>
+      <c r="AU61" s="9"/>
+      <c r="AV61" s="1"/>
+      <c r="AW61" s="1"/>
+      <c r="AX61" s="1"/>
+      <c r="AY61" s="1"/>
+      <c r="AZ61" s="1"/>
+      <c r="BA61" s="10"/>
+      <c r="BB61" s="10"/>
+      <c r="BC61" s="11"/>
+      <c r="BD61" s="11"/>
+      <c r="BE61" s="11"/>
+      <c r="BF61" s="14"/>
+      <c r="BG61" s="15"/>
+      <c r="BH61" s="11"/>
+      <c r="BI61" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Engage/K12-Performance/src/main/resources/excelfiles/K12_PlatformReadings.xlsx
+++ b/Engage/K12-Performance/src/main/resources/excelfiles/K12_PlatformReadings.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFF81F3-C622-4260-9763-225A3385C6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C0CE05-94AD-4DCA-B53F-07AB0D086BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="407">
   <si>
     <t>Environment</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Lead</t>
-  </si>
-  <si>
-    <t>Nadeem</t>
   </si>
   <si>
     <t>Owner</t>
@@ -1741,7 +1738,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1749,13 +1746,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1798,7 +1795,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1842,13 +1839,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -1856,13 +1853,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1870,13 +1867,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -1897,8 +1894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B22B77-F9A0-48CA-B95A-663324812831}">
   <dimension ref="A1:BI61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S54" sqref="S54:S60"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,231 +1924,231 @@
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="S1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="V1" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="Z1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AC1" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="AD1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AE1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AF1" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="AG1" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AJ1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="AM1" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="AN1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="AO1" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="AR1" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AX1" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AY1" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="AY1" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="AZ1" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="BA1" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="BB1" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="BC1" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="BD1" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BE1" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="BF1" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="BH1" s="3" t="s">
-        <v>363</v>
-      </c>
       <c r="BI1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:61" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
       <c r="J2" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M2" s="5">
         <v>257</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -2198,52 +2195,52 @@
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
       <c r="J3" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M3" s="5">
         <v>257</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -2291,52 +2288,52 @@
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
       <c r="J4" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M4" s="5">
         <v>257</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -2384,52 +2381,52 @@
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
       <c r="J5" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M5" s="5">
         <v>257</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -2477,80 +2474,80 @@
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
       <c r="J6" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M6" s="5">
         <v>257</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="R6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z6" s="1">
         <v>5</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC6" s="1">
         <v>5</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
@@ -2586,80 +2583,80 @@
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
       <c r="J7" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M7" s="5">
         <v>257</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="R7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z7" s="1">
         <v>5</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC7" s="1">
         <v>5</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
@@ -2695,49 +2692,49 @@
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
       <c r="J8" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M8" s="5">
         <v>257</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2753,10 +2750,10 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF8" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
@@ -2790,49 +2787,49 @@
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
       <c r="J9" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M9" s="5">
         <v>257</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="Q9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -2848,13 +2845,13 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
@@ -2887,49 +2884,49 @@
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
       <c r="J10" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M10" s="5">
         <v>257</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="Q10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -2937,7 +2934,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
@@ -2947,10 +2944,10 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
@@ -2984,49 +2981,49 @@
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
       <c r="J11" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M11" s="5">
         <v>257</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="Q11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -3034,7 +3031,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -3044,10 +3041,10 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
@@ -3081,61 +3078,61 @@
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="6"/>
       <c r="J12" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M12" s="5">
         <v>261</v>
       </c>
       <c r="N12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
@@ -3178,61 +3175,61 @@
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
       <c r="J13" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M13" s="5">
         <v>261</v>
       </c>
       <c r="N13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
@@ -3245,7 +3242,7 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AI13" s="7"/>
       <c r="AJ13" s="7"/>
@@ -3277,61 +3274,61 @@
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
       <c r="J14" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M14" s="5">
         <v>261</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -3345,7 +3342,7 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="7"/>
       <c r="AI14" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ14" s="8"/>
       <c r="AK14" s="8"/>
@@ -3376,52 +3373,52 @@
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="6"/>
       <c r="J15" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M15" s="5">
         <v>260</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -3469,40 +3466,40 @@
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="6"/>
       <c r="J16" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M16" s="5">
         <v>257</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -3554,59 +3551,59 @@
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="6"/>
       <c r="J17" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M17" s="5">
         <v>257</v>
       </c>
       <c r="N17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="P17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="R17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
@@ -3649,59 +3646,59 @@
     </row>
     <row r="18" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="6"/>
       <c r="J18" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M18" s="5">
         <v>257</v>
       </c>
       <c r="N18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="P18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
@@ -3716,7 +3713,7 @@
       <c r="AH18" s="7"/>
       <c r="AI18" s="8"/>
       <c r="AJ18" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AK18" s="8"/>
       <c r="AL18" s="8"/>
@@ -3746,59 +3743,59 @@
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="6"/>
       <c r="J19" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M19" s="5">
         <v>257</v>
       </c>
       <c r="N19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="P19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -3813,16 +3810,16 @@
       <c r="AH19" s="7"/>
       <c r="AI19" s="8"/>
       <c r="AJ19" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL19" s="1">
         <v>5</v>
       </c>
       <c r="AM19" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
@@ -3849,64 +3846,64 @@
     </row>
     <row r="20" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="6"/>
       <c r="J20" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M20" s="5">
         <v>259</v>
       </c>
       <c r="N20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="T20" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="V20" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
@@ -3930,10 +3927,10 @@
       </c>
       <c r="AO20" s="1"/>
       <c r="AP20" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="AQ20" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
@@ -3956,68 +3953,68 @@
     </row>
     <row r="21" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="6"/>
       <c r="J21" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M21" s="5">
         <v>257</v>
       </c>
       <c r="N21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="R21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y21" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Z21" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -4059,68 +4056,68 @@
     </row>
     <row r="22" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="6"/>
       <c r="J22" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M22" s="5">
         <v>257</v>
       </c>
       <c r="N22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="R22" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X22" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="Y22" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Z22" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -4162,49 +4159,49 @@
     </row>
     <row r="23" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="6"/>
       <c r="J23" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M23" s="5">
         <v>261</v>
       </c>
       <c r="N23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="Q23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -4212,7 +4209,7 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
@@ -4257,55 +4254,55 @@
     </row>
     <row r="24" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="6"/>
       <c r="J24" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M24" s="5">
         <v>257</v>
       </c>
       <c r="N24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="R24" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="S24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -4352,61 +4349,61 @@
     </row>
     <row r="25" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="6"/>
       <c r="J25" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M25" s="5">
         <v>257</v>
       </c>
       <c r="N25" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R25" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="S25" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="T25" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="T25" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="U25" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="7"/>
@@ -4423,7 +4420,7 @@
       <c r="AH25" s="7"/>
       <c r="AI25" s="8"/>
       <c r="AJ25" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
@@ -4433,7 +4430,7 @@
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
       <c r="AR25" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AS25" s="2"/>
       <c r="AT25" s="2"/>
@@ -4455,40 +4452,40 @@
     </row>
     <row r="26" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="6"/>
       <c r="J26" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M26" s="5">
         <v>270</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -4540,64 +4537,64 @@
     </row>
     <row r="27" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="6"/>
       <c r="J27" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M27" s="5">
         <v>270</v>
       </c>
       <c r="N27" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="Q27" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="Q27" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="R27" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="S27" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="T27" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="V27" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="W27" s="7"/>
       <c r="X27" s="1"/>
@@ -4622,14 +4619,14 @@
       <c r="AQ27" s="1"/>
       <c r="AR27" s="2"/>
       <c r="AS27" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AT27" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AU27" s="9"/>
       <c r="AV27" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AW27" s="8"/>
       <c r="AX27" s="8"/>
@@ -4647,61 +4644,61 @@
     </row>
     <row r="28" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="6"/>
       <c r="J28" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M28" s="5">
         <v>270</v>
       </c>
       <c r="N28" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="Q28" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="R28" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="S28" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="T28" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="U28" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="7"/>
@@ -4727,14 +4724,14 @@
       <c r="AQ28" s="1"/>
       <c r="AR28" s="2"/>
       <c r="AS28" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AT28" s="9"/>
       <c r="AU28" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AV28" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AW28" s="8"/>
       <c r="AX28" s="8"/>
@@ -4752,61 +4749,61 @@
     </row>
     <row r="29" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="6"/>
       <c r="J29" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M29" s="5">
         <v>270</v>
       </c>
       <c r="N29" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="P29" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="Q29" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="R29" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="S29" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="T29" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="T29" s="1" t="s">
+      <c r="U29" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="7"/>
@@ -4832,14 +4829,14 @@
       <c r="AQ29" s="1"/>
       <c r="AR29" s="2"/>
       <c r="AS29" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AT29" s="9"/>
       <c r="AU29" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AV29" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AW29" s="8"/>
       <c r="AX29" s="8"/>
@@ -4857,40 +4854,40 @@
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="6"/>
       <c r="J30" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M30" s="5">
         <v>270</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -4923,15 +4920,15 @@
       <c r="AQ30" s="1"/>
       <c r="AR30" s="2"/>
       <c r="AS30" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AT30" s="9"/>
       <c r="AU30" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AV30" s="8"/>
       <c r="AW30" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AX30" s="8"/>
       <c r="AY30" s="8"/>
@@ -4948,52 +4945,52 @@
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="6"/>
       <c r="J31" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M31" s="5">
         <v>270</v>
       </c>
       <c r="N31" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P31" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="O31" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="P31" s="1" t="s">
+      <c r="Q31" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="Q31" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="R31" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -5024,15 +5021,15 @@
       <c r="AS31" s="9"/>
       <c r="AT31" s="9"/>
       <c r="AU31" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AV31" s="8"/>
       <c r="AW31" s="8"/>
       <c r="AX31" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AY31" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AZ31" s="8"/>
       <c r="BA31" s="8"/>
@@ -5047,49 +5044,49 @@
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="6"/>
       <c r="J32" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M32" s="5">
         <v>270</v>
       </c>
       <c r="N32" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="P32" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="Q32" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -5120,11 +5117,11 @@
       <c r="AR32" s="2"/>
       <c r="AS32" s="9"/>
       <c r="AT32" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AU32" s="9"/>
       <c r="AV32" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AW32" s="8"/>
       <c r="AX32" s="8"/>
@@ -5142,46 +5139,46 @@
     </row>
     <row r="33" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="6"/>
       <c r="J33" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M33" s="5">
         <v>270</v>
       </c>
       <c r="N33" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="P33" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -5212,7 +5209,7 @@
       <c r="AQ33" s="1"/>
       <c r="AR33" s="2"/>
       <c r="AS33" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AT33" s="9"/>
       <c r="AU33" s="9"/>
@@ -5233,40 +5230,40 @@
     </row>
     <row r="34" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="6"/>
       <c r="J34" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M34" s="5">
         <v>270</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -5299,7 +5296,7 @@
       <c r="AQ34" s="1"/>
       <c r="AR34" s="2"/>
       <c r="AS34" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AT34" s="9"/>
       <c r="AU34" s="9"/>
@@ -5320,40 +5317,40 @@
     </row>
     <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="6"/>
       <c r="J35" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M35" s="5">
         <v>270</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -5386,7 +5383,7 @@
       <c r="AQ35" s="1"/>
       <c r="AR35" s="2"/>
       <c r="AS35" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AT35" s="9"/>
       <c r="AU35" s="9"/>
@@ -5407,40 +5404,40 @@
     </row>
     <row r="36" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="6"/>
       <c r="J36" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M36" s="5">
         <v>270</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -5473,7 +5470,7 @@
       <c r="AQ36" s="1"/>
       <c r="AR36" s="2"/>
       <c r="AS36" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AT36" s="9"/>
       <c r="AU36" s="9"/>
@@ -5494,40 +5491,40 @@
     </row>
     <row r="37" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="6"/>
       <c r="J37" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M37" s="5">
         <v>270</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -5560,7 +5557,7 @@
       <c r="AQ37" s="1"/>
       <c r="AR37" s="2"/>
       <c r="AS37" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AT37" s="9"/>
       <c r="AU37" s="9"/>
@@ -5581,40 +5578,40 @@
     </row>
     <row r="38" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="6"/>
       <c r="J38" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M38" s="5">
         <v>270</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -5647,7 +5644,7 @@
       <c r="AQ38" s="1"/>
       <c r="AR38" s="2"/>
       <c r="AS38" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AT38" s="9"/>
       <c r="AU38" s="9"/>
@@ -5668,40 +5665,40 @@
     </row>
     <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="6"/>
       <c r="J39" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M39" s="5">
         <v>270</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -5734,7 +5731,7 @@
       <c r="AQ39" s="1"/>
       <c r="AR39" s="2"/>
       <c r="AS39" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AT39" s="9"/>
       <c r="AU39" s="9"/>
@@ -5755,46 +5752,46 @@
     </row>
     <row r="40" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="6"/>
       <c r="J40" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M40" s="5">
         <v>270</v>
       </c>
       <c r="N40" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="P40" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -5832,13 +5829,13 @@
       <c r="AX40" s="8"/>
       <c r="AY40" s="8"/>
       <c r="AZ40" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BA40" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BB40" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="BC40" s="11"/>
       <c r="BD40" s="11"/>
@@ -5850,40 +5847,40 @@
     </row>
     <row r="41" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="6"/>
       <c r="J41" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M41" s="5">
         <v>270</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -5923,12 +5920,12 @@
       <c r="AX41" s="8"/>
       <c r="AY41" s="8"/>
       <c r="AZ41" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BA41" s="10"/>
       <c r="BB41" s="10"/>
       <c r="BC41" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BD41" s="11"/>
       <c r="BE41" s="11"/>
@@ -5939,40 +5936,40 @@
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="6"/>
       <c r="J42" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M42" s="5">
         <v>270</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -6005,14 +6002,14 @@
       <c r="AQ42" s="1"/>
       <c r="AR42" s="2"/>
       <c r="AS42" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AT42" s="9"/>
       <c r="AU42" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AV42" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AW42" s="8"/>
       <c r="AX42" s="8"/>
@@ -6022,7 +6019,7 @@
       <c r="BB42" s="10"/>
       <c r="BC42" s="11"/>
       <c r="BD42" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="BE42" s="11"/>
       <c r="BF42" s="11"/>
@@ -6032,40 +6029,40 @@
     </row>
     <row r="43" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="6"/>
       <c r="J43" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M43" s="5">
         <v>270</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -6098,14 +6095,14 @@
       <c r="AQ43" s="1"/>
       <c r="AR43" s="2"/>
       <c r="AS43" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AT43" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AU43" s="9"/>
       <c r="AV43" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AW43" s="8"/>
       <c r="AX43" s="8"/>
@@ -6115,7 +6112,7 @@
       <c r="BB43" s="10"/>
       <c r="BC43" s="11"/>
       <c r="BD43" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="BE43" s="11"/>
       <c r="BF43" s="11"/>
@@ -6125,40 +6122,40 @@
     </row>
     <row r="44" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="6"/>
       <c r="J44" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M44" s="5">
         <v>270</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -6191,14 +6188,14 @@
       <c r="AQ44" s="1"/>
       <c r="AR44" s="2"/>
       <c r="AS44" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AT44" s="9"/>
       <c r="AU44" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AV44" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AW44" s="8"/>
       <c r="AX44" s="8"/>
@@ -6208,7 +6205,7 @@
       <c r="BB44" s="10"/>
       <c r="BC44" s="11"/>
       <c r="BD44" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="BE44" s="11"/>
       <c r="BF44" s="11"/>
@@ -6218,55 +6215,55 @@
     </row>
     <row r="45" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="6"/>
       <c r="J45" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K45" s="5"/>
       <c r="L45" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M45" s="5">
         <v>272</v>
       </c>
       <c r="N45" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="P45" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q45" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="R45" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="S45" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
@@ -6296,14 +6293,14 @@
       <c r="AQ45" s="1"/>
       <c r="AR45" s="2"/>
       <c r="AS45" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AT45" s="9"/>
       <c r="AU45" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AV45" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AW45" s="8"/>
       <c r="AX45" s="8"/>
@@ -6315,7 +6312,7 @@
         <v>4</v>
       </c>
       <c r="BD45" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="BE45" s="11"/>
       <c r="BF45" s="11"/>
@@ -6325,40 +6322,40 @@
     </row>
     <row r="46" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="6"/>
       <c r="J46" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M46" s="5">
         <v>271</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -6391,14 +6388,14 @@
       <c r="AQ46" s="1"/>
       <c r="AR46" s="2"/>
       <c r="AS46" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AT46" s="9"/>
       <c r="AU46" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AV46" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AW46" s="8"/>
       <c r="AX46" s="8"/>
@@ -6408,7 +6405,7 @@
       <c r="BB46" s="10"/>
       <c r="BC46" s="11"/>
       <c r="BD46" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="BE46" s="11"/>
       <c r="BF46" s="11"/>
@@ -6418,43 +6415,43 @@
     </row>
     <row r="47" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="6"/>
       <c r="J47" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K47" s="5"/>
       <c r="L47" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M47" s="5">
         <v>270</v>
       </c>
       <c r="N47" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="O47" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -6505,43 +6502,43 @@
     </row>
     <row r="48" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="6"/>
       <c r="J48" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K48" s="5"/>
       <c r="L48" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M48" s="5">
         <v>270</v>
       </c>
       <c r="N48" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="O48" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -6592,43 +6589,43 @@
     </row>
     <row r="49" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="6"/>
       <c r="J49" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K49" s="5"/>
       <c r="L49" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M49" s="5">
         <v>270</v>
       </c>
       <c r="N49" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -6679,55 +6676,55 @@
     </row>
     <row r="50" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="6"/>
       <c r="J50" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K50" s="5"/>
       <c r="L50" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M50" s="5">
         <v>270</v>
       </c>
       <c r="N50" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="P50" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="P50" s="1" t="s">
+      <c r="Q50" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="Q50" s="1" t="s">
+      <c r="R50" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="R50" s="1" t="s">
+      <c r="S50" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
@@ -6757,7 +6754,7 @@
       <c r="AS50" s="9"/>
       <c r="AT50" s="9"/>
       <c r="AU50" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AV50" s="8"/>
       <c r="AW50" s="8"/>
@@ -6776,49 +6773,49 @@
     </row>
     <row r="51" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="6"/>
       <c r="J51" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K51" s="13"/>
       <c r="L51" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M51" s="5">
         <v>257</v>
       </c>
       <c r="N51" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="O51" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="O51" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="P51" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -6827,7 +6824,7 @@
       <c r="V51" s="1"/>
       <c r="W51" s="7"/>
       <c r="X51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
@@ -6869,52 +6866,52 @@
     </row>
     <row r="52" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="6"/>
       <c r="J52" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K52" s="13"/>
       <c r="L52" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M52" s="5">
         <v>257</v>
       </c>
       <c r="N52" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="O52" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="P52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q52" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="P52" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="R52" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
@@ -6962,43 +6959,43 @@
     </row>
     <row r="53" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="6"/>
       <c r="J53" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K53" s="16"/>
       <c r="L53" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M53" s="16">
         <v>114</v>
       </c>
       <c r="N53" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O53" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
@@ -7049,68 +7046,68 @@
     </row>
     <row r="54" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="6"/>
       <c r="J54" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K54" s="16"/>
       <c r="L54" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M54" s="16">
         <v>114</v>
       </c>
       <c r="N54" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="O54" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="P54" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="P54" s="1" t="s">
+      <c r="Q54" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="Q54" s="1" t="s">
+      <c r="R54" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="R54" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="S54" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
       <c r="W54" s="7"/>
       <c r="X54" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y54" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="Y54" s="1" t="s">
+      <c r="Z54" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="Z54" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
@@ -7143,83 +7140,83 @@
       <c r="BC54" s="11"/>
       <c r="BD54" s="11"/>
       <c r="BE54" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="BF54" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="BF54" s="14" t="s">
+      <c r="BG54" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="BG54" s="15" t="s">
+      <c r="BH54" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="BH54" s="11" t="s">
-        <v>367</v>
       </c>
       <c r="BI54" s="16"/>
     </row>
     <row r="55" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="6"/>
       <c r="J55" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K55" s="16"/>
       <c r="L55" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M55" s="16">
         <v>114</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O55" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="P55" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="P55" s="1" t="s">
+      <c r="Q55" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="Q55" s="1" t="s">
+      <c r="R55" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="R55" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="S55" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
       <c r="W55" s="7"/>
       <c r="X55" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y55" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="Y55" s="1" t="s">
+      <c r="Z55" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="Z55" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
@@ -7252,83 +7249,83 @@
       <c r="BC55" s="11"/>
       <c r="BD55" s="11"/>
       <c r="BE55" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="BF55" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="BF55" s="14" t="s">
+      <c r="BG55" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="BG55" s="15" t="s">
+      <c r="BH55" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="BH55" s="11" t="s">
-        <v>367</v>
       </c>
       <c r="BI55" s="16"/>
     </row>
     <row r="56" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="6"/>
       <c r="J56" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K56" s="16"/>
       <c r="L56" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M56" s="16">
         <v>114</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O56" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="P56" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="P56" s="1" t="s">
+      <c r="Q56" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="Q56" s="1" t="s">
+      <c r="R56" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="R56" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="S56" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
       <c r="W56" s="7"/>
       <c r="X56" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y56" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="Y56" s="1" t="s">
+      <c r="Z56" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="Z56" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
@@ -7361,83 +7358,83 @@
       <c r="BC56" s="11"/>
       <c r="BD56" s="11"/>
       <c r="BE56" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="BF56" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="BF56" s="14" t="s">
+      <c r="BG56" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="BG56" s="15" t="s">
+      <c r="BH56" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="BH56" s="11" t="s">
-        <v>367</v>
       </c>
       <c r="BI56" s="16"/>
     </row>
     <row r="57" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="6"/>
       <c r="J57" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K57" s="16"/>
       <c r="L57" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M57" s="16">
         <v>114</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O57" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="P57" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="P57" s="1" t="s">
+      <c r="Q57" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="Q57" s="1" t="s">
+      <c r="R57" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="R57" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="S57" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
       <c r="W57" s="7"/>
       <c r="X57" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y57" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="Y57" s="1" t="s">
+      <c r="Z57" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="Z57" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
@@ -7470,83 +7467,83 @@
       <c r="BC57" s="11"/>
       <c r="BD57" s="11"/>
       <c r="BE57" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="BF57" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="BF57" s="14" t="s">
+      <c r="BG57" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="BG57" s="15" t="s">
+      <c r="BH57" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="BH57" s="11" t="s">
-        <v>367</v>
       </c>
       <c r="BI57" s="16"/>
     </row>
     <row r="58" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="6"/>
       <c r="J58" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K58" s="16"/>
       <c r="L58" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M58" s="16">
         <v>114</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O58" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="P58" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="P58" s="1" t="s">
+      <c r="Q58" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="Q58" s="1" t="s">
+      <c r="R58" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="R58" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="S58" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
       <c r="W58" s="7"/>
       <c r="X58" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y58" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="Y58" s="1" t="s">
+      <c r="Z58" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="Z58" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
@@ -7579,83 +7576,83 @@
       <c r="BC58" s="11"/>
       <c r="BD58" s="11"/>
       <c r="BE58" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="BF58" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="BF58" s="14" t="s">
+      <c r="BG58" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="BG58" s="15" t="s">
+      <c r="BH58" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="BH58" s="11" t="s">
-        <v>367</v>
       </c>
       <c r="BI58" s="16"/>
     </row>
     <row r="59" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="6"/>
       <c r="J59" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K59" s="16"/>
       <c r="L59" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M59" s="16">
         <v>114</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O59" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="P59" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="P59" s="1" t="s">
+      <c r="Q59" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="Q59" s="1" t="s">
+      <c r="R59" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="R59" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="S59" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
       <c r="W59" s="7"/>
       <c r="X59" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y59" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="Y59" s="1" t="s">
+      <c r="Z59" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="Z59" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
@@ -7688,83 +7685,83 @@
       <c r="BC59" s="11"/>
       <c r="BD59" s="11"/>
       <c r="BE59" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="BF59" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="BF59" s="14" t="s">
+      <c r="BG59" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="BG59" s="15" t="s">
+      <c r="BH59" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="BH59" s="11" t="s">
-        <v>367</v>
       </c>
       <c r="BI59" s="16"/>
     </row>
     <row r="60" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="6"/>
       <c r="J60" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K60" s="16"/>
       <c r="L60" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M60" s="16">
         <v>114</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O60" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="P60" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="P60" s="1" t="s">
+      <c r="Q60" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="Q60" s="1" t="s">
+      <c r="R60" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="R60" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="S60" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
       <c r="W60" s="7"/>
       <c r="X60" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y60" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="Y60" s="1" t="s">
+      <c r="Z60" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="Z60" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
@@ -7797,55 +7794,55 @@
       <c r="BC60" s="11"/>
       <c r="BD60" s="11"/>
       <c r="BE60" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="BF60" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="BF60" s="14" t="s">
+      <c r="BG60" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="BG60" s="15" t="s">
+      <c r="BH60" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="BH60" s="11" t="s">
-        <v>367</v>
       </c>
       <c r="BI60" s="16"/>
     </row>
     <row r="61" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="6"/>
       <c r="J61" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K61" s="16"/>
       <c r="L61" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M61" s="16">
         <v>114</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
